--- a/Чек-лист ДDS.xlsx
+++ b/Чек-лист ДDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitr\Documents\Дмитрий\My-First_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7278D61A-4D41-468B-AA85-966B5C253615}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9BEF91-C857-4490-AC9E-EB6DEA97FD0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Яндекс.Браузер</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Сайт интернет магазин </t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,74 +502,98 @@
     <col min="2" max="2" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
